--- a/result.xlsx
+++ b/result.xlsx
@@ -646,7 +646,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -1383,6 +1383,1798 @@
         <v>41</v>
       </c>
       <c t="s" s="1" r="B91">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="92">
+      <c t="s" s="1" r="A92">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B92">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="93">
+      <c t="s" s="1" r="A93">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B93">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="94">
+      <c t="s" s="1" r="A94">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B94">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="95">
+      <c t="s" s="1" r="A95">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B95">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="96">
+      <c t="s" s="1" r="A96">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B96">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="97">
+      <c t="s" s="1" r="A97">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B97">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="98">
+      <c t="s" s="1" r="A98">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="B98">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="99">
+      <c t="s" s="1" r="A99">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="B99">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="100">
+      <c t="s" s="1" r="A100">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="B100">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="101">
+      <c t="s" s="1" r="A101">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="B101">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="102">
+      <c t="s" s="1" r="A102">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="B102">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="103">
+      <c t="s" s="1" r="A103">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="B103">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="104">
+      <c t="s" s="1" r="A104">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="B104">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="105">
+      <c t="s" s="1" r="A105">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="B105">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="106">
+      <c t="s" s="1" r="A106">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="B106">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="107">
+      <c t="s" s="1" r="A107">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="B107">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="108">
+      <c t="s" s="1" r="A108">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="B108">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="109">
+      <c t="s" s="1" r="A109">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="B109">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="110">
+      <c t="s" s="1" r="A110">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="B110">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="111">
+      <c t="s" s="1" r="A111">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="B111">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="112">
+      <c t="s" s="1" r="A112">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="B112">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="113">
+      <c t="s" s="1" r="A113">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="B113">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="114">
+      <c t="s" s="1" r="A114">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="B114">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="115">
+      <c t="s" s="1" r="A115">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="B115">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="116">
+      <c t="s" s="1" r="A116">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="B116">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="117">
+      <c t="s" s="1" r="A117">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="B117">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="118">
+      <c t="s" s="1" r="A118">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="B118">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="119">
+      <c t="s" s="1" r="A119">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="B119">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="120">
+      <c t="s" s="1" r="A120">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="B120">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="121">
+      <c t="s" s="1" r="A121">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="B121">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="122">
+      <c t="s" s="1" r="A122">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="B122">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="123">
+      <c t="s" s="1" r="A123">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="B123">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="124">
+      <c t="s" s="1" r="A124">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="B124">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="125">
+      <c t="s" s="1" r="A125">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="B125">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="126">
+      <c t="s" s="1" r="A126">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="B126">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="127">
+      <c t="s" s="1" r="A127">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="B127">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="128">
+      <c t="s" s="1" r="A128">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="B128">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="129">
+      <c t="s" s="1" r="A129">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="B129">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="130">
+      <c t="s" s="1" r="A130">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="B130">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="131">
+      <c t="s" s="1" r="A131">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="B131">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="132">
+      <c t="s" s="1" r="A132">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="B132">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="133">
+      <c t="s" s="1" r="A133">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="B133">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="134">
+      <c t="s" s="1" r="A134">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="B134">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="135">
+      <c t="s" s="1" r="A135">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="B135">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="136">
+      <c t="s" s="1" r="A136">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="B136">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="137">
+      <c t="s" s="1" r="A137">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="B137">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="138">
+      <c t="s" s="1" r="A138">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="B138">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="139">
+      <c t="s" s="1" r="A139">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="B139">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="140">
+      <c t="s" s="1" r="A140">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="B140">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="141">
+      <c t="s" s="1" r="A141">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="B141">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="142">
+      <c t="s" s="1" r="A142">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="B142">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="143">
+      <c t="s" s="1" r="A143">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="B143">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="144">
+      <c t="s" s="1" r="A144">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="B144">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="145">
+      <c t="s" s="1" r="A145">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="B145">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="146">
+      <c t="s" s="1" r="A146">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="B146">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="147">
+      <c t="s" s="1" r="A147">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="B147">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="148">
+      <c t="s" s="1" r="A148">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B148">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="149">
+      <c t="s" s="1" r="A149">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B149">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="150">
+      <c t="s" s="1" r="A150">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B150">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="151">
+      <c t="s" s="1" r="A151">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B151">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="152">
+      <c t="s" s="1" r="A152">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B152">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="153">
+      <c t="s" s="1" r="A153">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B153">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="154">
+      <c t="s" s="1" r="A154">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="B154">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="155">
+      <c t="s" s="1" r="A155">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="B155">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="156">
+      <c t="s" s="1" r="A156">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="B156">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="157">
+      <c t="s" s="1" r="A157">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="B157">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="158">
+      <c t="s" s="1" r="A158">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="B158">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="159">
+      <c t="s" s="1" r="A159">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="B159">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="160">
+      <c t="s" s="1" r="A160">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="B160">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="161">
+      <c t="s" s="1" r="A161">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="B161">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="162">
+      <c t="s" s="1" r="A162">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="B162">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="163">
+      <c t="s" s="1" r="A163">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="B163">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="164">
+      <c t="s" s="1" r="A164">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="B164">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="165">
+      <c t="s" s="1" r="A165">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="B165">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="166">
+      <c t="s" s="1" r="A166">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="B166">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="167">
+      <c t="s" s="1" r="A167">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="B167">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="168">
+      <c t="s" s="1" r="A168">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="B168">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="169">
+      <c t="s" s="1" r="A169">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="B169">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="170">
+      <c t="s" s="1" r="A170">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="B170">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="171">
+      <c t="s" s="1" r="A171">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="B171">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="172">
+      <c t="s" s="1" r="A172">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="B172">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="173">
+      <c t="s" s="1" r="A173">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="B173">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="174">
+      <c t="s" s="1" r="A174">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="B174">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="175">
+      <c t="s" s="1" r="A175">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="B175">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="176">
+      <c t="s" s="1" r="A176">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="B176">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="177">
+      <c t="s" s="1" r="A177">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="B177">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="178">
+      <c t="s" s="1" r="A178">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="B178">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="179">
+      <c t="s" s="1" r="A179">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="B179">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="180">
+      <c t="s" s="1" r="A180">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="B180">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="181">
+      <c t="s" s="1" r="A181">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="B181">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="182">
+      <c t="s" s="1" r="A182">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="B182">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="183">
+      <c t="s" s="1" r="A183">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="B183">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="184">
+      <c t="s" s="1" r="A184">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="B184">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="185">
+      <c t="s" s="1" r="A185">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="B185">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="186">
+      <c t="s" s="1" r="A186">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="B186">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="187">
+      <c t="s" s="1" r="A187">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="B187">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="188">
+      <c t="s" s="1" r="A188">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="B188">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="189">
+      <c t="s" s="1" r="A189">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="B189">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="190">
+      <c t="s" s="1" r="A190">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="B190">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="191">
+      <c t="s" s="1" r="A191">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="B191">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="192">
+      <c t="s" s="1" r="A192">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="B192">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="193">
+      <c t="s" s="1" r="A193">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="B193">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="194">
+      <c t="s" s="1" r="A194">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="B194">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="195">
+      <c t="s" s="1" r="A195">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="B195">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="196">
+      <c t="s" s="1" r="A196">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="B196">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="197">
+      <c t="s" s="1" r="A197">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="B197">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="198">
+      <c t="s" s="1" r="A198">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="B198">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="199">
+      <c t="s" s="1" r="A199">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="B199">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="200">
+      <c t="s" s="1" r="A200">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="B200">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="201">
+      <c t="s" s="1" r="A201">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="B201">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="202">
+      <c t="s" s="1" r="A202">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="B202">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="203">
+      <c t="s" s="1" r="A203">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="B203">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="204">
+      <c t="s" s="1" r="A204">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B204">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="205">
+      <c t="s" s="1" r="A205">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B205">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="206">
+      <c t="s" s="1" r="A206">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B206">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="207">
+      <c t="s" s="1" r="A207">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B207">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="208">
+      <c t="s" s="1" r="A208">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B208">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="209">
+      <c t="s" s="1" r="A209">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B209">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="210">
+      <c t="s" s="1" r="A210">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="B210">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="211">
+      <c t="s" s="1" r="A211">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="B211">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="212">
+      <c t="s" s="1" r="A212">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="B212">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="213">
+      <c t="s" s="1" r="A213">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="B213">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="214">
+      <c t="s" s="1" r="A214">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="B214">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="215">
+      <c t="s" s="1" r="A215">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="B215">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="216">
+      <c t="s" s="1" r="A216">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="B216">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="217">
+      <c t="s" s="1" r="A217">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="B217">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="218">
+      <c t="s" s="1" r="A218">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="B218">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="219">
+      <c t="s" s="1" r="A219">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="B219">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="220">
+      <c t="s" s="1" r="A220">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="B220">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="221">
+      <c t="s" s="1" r="A221">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="B221">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="222">
+      <c t="s" s="1" r="A222">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="B222">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="223">
+      <c t="s" s="1" r="A223">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="B223">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="224">
+      <c t="s" s="1" r="A224">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="B224">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="225">
+      <c t="s" s="1" r="A225">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="B225">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="226">
+      <c t="s" s="1" r="A226">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="B226">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="227">
+      <c t="s" s="1" r="A227">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="B227">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="228">
+      <c t="s" s="1" r="A228">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="B228">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="229">
+      <c t="s" s="1" r="A229">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="B229">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="230">
+      <c t="s" s="1" r="A230">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="B230">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="231">
+      <c t="s" s="1" r="A231">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="B231">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="232">
+      <c t="s" s="1" r="A232">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="B232">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="233">
+      <c t="s" s="1" r="A233">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="B233">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="234">
+      <c t="s" s="1" r="A234">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="B234">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="235">
+      <c t="s" s="1" r="A235">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="B235">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="236">
+      <c t="s" s="1" r="A236">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="B236">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="237">
+      <c t="s" s="1" r="A237">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="B237">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="238">
+      <c t="s" s="1" r="A238">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="B238">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="239">
+      <c t="s" s="1" r="A239">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="B239">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="240">
+      <c t="s" s="1" r="A240">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="B240">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="241">
+      <c t="s" s="1" r="A241">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="B241">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="242">
+      <c t="s" s="1" r="A242">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="B242">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="243">
+      <c t="s" s="1" r="A243">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="B243">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="244">
+      <c t="s" s="1" r="A244">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="B244">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="245">
+      <c t="s" s="1" r="A245">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="B245">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="246">
+      <c t="s" s="1" r="A246">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="B246">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="247">
+      <c t="s" s="1" r="A247">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="B247">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="248">
+      <c t="s" s="1" r="A248">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="B248">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="249">
+      <c t="s" s="1" r="A249">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="B249">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="250">
+      <c t="s" s="1" r="A250">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="B250">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="251">
+      <c t="s" s="1" r="A251">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="B251">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="252">
+      <c t="s" s="1" r="A252">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="B252">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="253">
+      <c t="s" s="1" r="A253">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="B253">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="254">
+      <c t="s" s="1" r="A254">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="B254">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="255">
+      <c t="s" s="1" r="A255">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="B255">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="256">
+      <c t="s" s="1" r="A256">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="B256">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="257">
+      <c t="s" s="1" r="A257">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="B257">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="258">
+      <c t="s" s="1" r="A258">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="B258">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="259">
+      <c t="s" s="1" r="A259">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="B259">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="260">
+      <c t="s" s="1" r="A260">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B260">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="261">
+      <c t="s" s="1" r="A261">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B261">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="262">
+      <c t="s" s="1" r="A262">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B262">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="263">
+      <c t="s" s="1" r="A263">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B263">
+        <v>88</v>
+      </c>
+    </row>
+    <row spans="1:2" r="264">
+      <c t="s" s="1" r="A264">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B264">
+        <v>90</v>
+      </c>
+    </row>
+    <row spans="1:2" r="265">
+      <c t="s" s="1" r="A265">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B265">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="266">
+      <c t="s" s="1" r="A266">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="B266">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="267">
+      <c t="s" s="1" r="A267">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="B267">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="268">
+      <c t="s" s="1" r="A268">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="B268">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="269">
+      <c t="s" s="1" r="A269">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="B269">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="270">
+      <c t="s" s="1" r="A270">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="B270">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="271">
+      <c t="s" s="1" r="A271">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="B271">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="272">
+      <c t="s" s="1" r="A272">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="B272">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="273">
+      <c t="s" s="1" r="A273">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="B273">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="274">
+      <c t="s" s="1" r="A274">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="B274">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="275">
+      <c t="s" s="1" r="A275">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="B275">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="276">
+      <c t="s" s="1" r="A276">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="B276">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="277">
+      <c t="s" s="1" r="A277">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="B277">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="278">
+      <c t="s" s="1" r="A278">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="B278">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="279">
+      <c t="s" s="1" r="A279">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="B279">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="280">
+      <c t="s" s="1" r="A280">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="B280">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="281">
+      <c t="s" s="1" r="A281">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="B281">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="282">
+      <c t="s" s="1" r="A282">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="B282">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="283">
+      <c t="s" s="1" r="A283">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="B283">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="284">
+      <c t="s" s="1" r="A284">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="B284">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="285">
+      <c t="s" s="1" r="A285">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="B285">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="286">
+      <c t="s" s="1" r="A286">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="B286">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="287">
+      <c t="s" s="1" r="A287">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="B287">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="288">
+      <c t="s" s="1" r="A288">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="B288">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="289">
+      <c t="s" s="1" r="A289">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="B289">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="290">
+      <c t="s" s="1" r="A290">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="B290">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="291">
+      <c t="s" s="1" r="A291">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="B291">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="292">
+      <c t="s" s="1" r="A292">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="B292">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="293">
+      <c t="s" s="1" r="A293">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="B293">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="294">
+      <c t="s" s="1" r="A294">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="B294">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="295">
+      <c t="s" s="1" r="A295">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="B295">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="296">
+      <c t="s" s="1" r="A296">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="B296">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="297">
+      <c t="s" s="1" r="A297">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="B297">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="298">
+      <c t="s" s="1" r="A298">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="B298">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="299">
+      <c t="s" s="1" r="A299">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="B299">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="300">
+      <c t="s" s="1" r="A300">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="B300">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="301">
+      <c t="s" s="1" r="A301">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="B301">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="302">
+      <c t="s" s="1" r="A302">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="B302">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="303">
+      <c t="s" s="1" r="A303">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="B303">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="304">
+      <c t="s" s="1" r="A304">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="B304">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="305">
+      <c t="s" s="1" r="A305">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="B305">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="306">
+      <c t="s" s="1" r="A306">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="B306">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="307">
+      <c t="s" s="1" r="A307">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="B307">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="308">
+      <c t="s" s="1" r="A308">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="B308">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="309">
+      <c t="s" s="1" r="A309">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="B309">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="310">
+      <c t="s" s="1" r="A310">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="B310">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="311">
+      <c t="s" s="1" r="A311">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="B311">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="312">
+      <c t="s" s="1" r="A312">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="B312">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="313">
+      <c t="s" s="1" r="A313">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="B313">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="314">
+      <c t="s" s="1" r="A314">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="B314">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:2" r="315">
+      <c t="s" s="1" r="A315">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="B315">
         <v>91</v>
       </c>
     </row>
